--- a/Results/Filter/plsa-partial-ner.xlsx
+++ b/Results/Filter/plsa-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="1654">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4105,10 +4105,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4183,6 +4183,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4228,7 +4231,7 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
+    <t>moules|lobster|ravioli</t>
   </si>
   <si>
     <t>price</t>
@@ -4261,9 +4264,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4276,7 +4276,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4297,7 +4297,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4306,6 +4306,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4321,13 +4324,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4345,7 +4351,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4354,7 +4363,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4381,222 +4390,225 @@
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -4630,7 +4642,7 @@
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
@@ -4711,7 +4723,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -4720,7 +4732,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -4729,7 +4741,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -4813,7 +4825,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -4846,7 +4858,7 @@
     <t>service|rude|even|well</t>
   </si>
   <si>
-    <t>service|great|good</t>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
@@ -4856,6 +4868,9 @@
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5364,7 +5379,7 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5387,7 +5402,7 @@
         <v>932</v>
       </c>
       <c r="G3" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5410,7 +5425,7 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5433,7 +5448,7 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5456,7 +5471,7 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5479,7 +5494,7 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5502,7 +5517,7 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5525,7 +5540,7 @@
         <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5548,7 +5563,7 @@
         <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5571,7 +5586,7 @@
         <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5594,7 +5609,7 @@
         <v>932</v>
       </c>
       <c r="G12" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5617,7 +5632,7 @@
         <v>1344</v>
       </c>
       <c r="G13" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5640,7 +5655,7 @@
         <v>1345</v>
       </c>
       <c r="G14" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5663,7 +5678,7 @@
         <v>1346</v>
       </c>
       <c r="G15" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5686,7 +5701,7 @@
         <v>1347</v>
       </c>
       <c r="G16" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5709,7 +5724,7 @@
         <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5732,7 +5747,7 @@
         <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5755,7 +5770,7 @@
         <v>932</v>
       </c>
       <c r="G19" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5778,7 +5793,7 @@
         <v>1350</v>
       </c>
       <c r="G20" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5801,7 +5816,7 @@
         <v>1119</v>
       </c>
       <c r="G21" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5824,7 +5839,7 @@
         <v>946</v>
       </c>
       <c r="G22" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5847,7 +5862,7 @@
         <v>1351</v>
       </c>
       <c r="G23" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5870,7 +5885,7 @@
         <v>1352</v>
       </c>
       <c r="G24" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5893,7 +5908,7 @@
         <v>946</v>
       </c>
       <c r="G25" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5916,7 +5931,7 @@
         <v>967</v>
       </c>
       <c r="G26" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5939,7 +5954,7 @@
         <v>995</v>
       </c>
       <c r="G27" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5962,7 +5977,7 @@
         <v>1353</v>
       </c>
       <c r="G28" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5985,7 +6000,7 @@
         <v>1354</v>
       </c>
       <c r="G29" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6008,7 +6023,7 @@
         <v>1355</v>
       </c>
       <c r="G30" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6031,7 +6046,7 @@
         <v>1356</v>
       </c>
       <c r="G31" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6054,7 +6069,7 @@
         <v>932</v>
       </c>
       <c r="G32" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6077,7 +6092,7 @@
         <v>1357</v>
       </c>
       <c r="G33" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6100,7 +6115,7 @@
         <v>1358</v>
       </c>
       <c r="G34" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6123,7 +6138,7 @@
         <v>1359</v>
       </c>
       <c r="G35" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6146,7 +6161,7 @@
         <v>1360</v>
       </c>
       <c r="G36" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6169,7 +6184,7 @@
         <v>1338</v>
       </c>
       <c r="G37" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6192,7 +6207,7 @@
         <v>1361</v>
       </c>
       <c r="G38" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6215,7 +6230,7 @@
         <v>1362</v>
       </c>
       <c r="G39" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6238,7 +6253,7 @@
         <v>1363</v>
       </c>
       <c r="G40" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6261,7 +6276,7 @@
         <v>1364</v>
       </c>
       <c r="G41" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6284,7 +6299,7 @@
         <v>1365</v>
       </c>
       <c r="G42" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6307,7 +6322,7 @@
         <v>1366</v>
       </c>
       <c r="G43" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6330,7 +6345,7 @@
         <v>967</v>
       </c>
       <c r="G44" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6353,7 +6368,7 @@
         <v>932</v>
       </c>
       <c r="G45" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6376,7 +6391,7 @@
         <v>932</v>
       </c>
       <c r="G46" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6399,7 +6414,7 @@
         <v>1367</v>
       </c>
       <c r="G47" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6422,7 +6437,7 @@
         <v>1368</v>
       </c>
       <c r="G48" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6445,7 +6460,7 @@
         <v>1369</v>
       </c>
       <c r="G49" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6468,7 +6483,7 @@
         <v>1370</v>
       </c>
       <c r="G50" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6491,7 +6506,7 @@
         <v>1371</v>
       </c>
       <c r="G51" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6514,7 +6529,7 @@
         <v>1372</v>
       </c>
       <c r="G52" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6537,7 +6552,7 @@
         <v>1373</v>
       </c>
       <c r="G53" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6560,7 +6575,7 @@
         <v>1374</v>
       </c>
       <c r="G54" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6583,7 +6598,7 @@
         <v>1375</v>
       </c>
       <c r="G55" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6606,7 +6621,7 @@
         <v>1376</v>
       </c>
       <c r="G56" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6629,7 +6644,7 @@
         <v>1377</v>
       </c>
       <c r="G57" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6652,7 +6667,7 @@
         <v>1378</v>
       </c>
       <c r="G58" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6675,7 +6690,7 @@
         <v>1379</v>
       </c>
       <c r="G59" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6698,7 +6713,7 @@
         <v>1341</v>
       </c>
       <c r="G60" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6721,7 +6736,7 @@
         <v>932</v>
       </c>
       <c r="G61" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6744,7 +6759,7 @@
         <v>1380</v>
       </c>
       <c r="G62" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6767,7 +6782,7 @@
         <v>1381</v>
       </c>
       <c r="G63" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6790,7 +6805,7 @@
         <v>1382</v>
       </c>
       <c r="G64" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6813,7 +6828,7 @@
         <v>1349</v>
       </c>
       <c r="G65" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6836,7 +6851,7 @@
         <v>1383</v>
       </c>
       <c r="G66" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6859,7 +6874,7 @@
         <v>1384</v>
       </c>
       <c r="G67" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6882,7 +6897,7 @@
         <v>988</v>
       </c>
       <c r="G68" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6905,7 +6920,7 @@
         <v>1385</v>
       </c>
       <c r="G69" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6928,7 +6943,7 @@
         <v>1353</v>
       </c>
       <c r="G70" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6951,7 +6966,7 @@
         <v>932</v>
       </c>
       <c r="G71" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6974,7 +6989,7 @@
         <v>1386</v>
       </c>
       <c r="G72" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6997,7 +7012,7 @@
         <v>1387</v>
       </c>
       <c r="G73" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7020,7 +7035,7 @@
         <v>1388</v>
       </c>
       <c r="G74" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7043,7 +7058,7 @@
         <v>984</v>
       </c>
       <c r="G75" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7063,10 +7078,10 @@
         <v>1284</v>
       </c>
       <c r="F76" t="s">
-        <v>994</v>
+        <v>1389</v>
       </c>
       <c r="G76" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7089,7 +7104,7 @@
         <v>1370</v>
       </c>
       <c r="G77" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7109,10 +7124,10 @@
         <v>1288</v>
       </c>
       <c r="F78" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G78" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7132,10 +7147,10 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G79" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7155,10 +7170,10 @@
         <v>1276</v>
       </c>
       <c r="F80" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G80" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -7178,10 +7193,10 @@
         <v>1277</v>
       </c>
       <c r="F81" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G81" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7201,10 +7216,10 @@
         <v>1296</v>
       </c>
       <c r="F82" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G82" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7227,7 +7242,7 @@
         <v>932</v>
       </c>
       <c r="G83" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7250,7 +7265,7 @@
         <v>999</v>
       </c>
       <c r="G84" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7273,7 +7288,7 @@
         <v>1353</v>
       </c>
       <c r="G85" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7293,10 +7308,10 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G86" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7316,10 +7331,10 @@
         <v>1284</v>
       </c>
       <c r="F87" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G87" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7339,10 +7354,10 @@
         <v>1283</v>
       </c>
       <c r="F88" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G88" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7362,10 +7377,10 @@
         <v>1277</v>
       </c>
       <c r="F89" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G89" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7388,7 +7403,7 @@
         <v>967</v>
       </c>
       <c r="G90" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7408,10 +7423,10 @@
         <v>1285</v>
       </c>
       <c r="F91" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G91" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7431,10 +7446,10 @@
         <v>1298</v>
       </c>
       <c r="F92" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G92" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7454,10 +7469,10 @@
         <v>1276</v>
       </c>
       <c r="F93" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G93" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7477,10 +7492,10 @@
         <v>1288</v>
       </c>
       <c r="F94" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G94" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7500,10 +7515,10 @@
         <v>1299</v>
       </c>
       <c r="F95" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G95" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7523,10 +7538,10 @@
         <v>1277</v>
       </c>
       <c r="F96" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G96" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7546,10 +7561,10 @@
         <v>1276</v>
       </c>
       <c r="F97" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G97" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7572,7 +7587,7 @@
         <v>1341</v>
       </c>
       <c r="G98" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7592,10 +7607,10 @@
         <v>1278</v>
       </c>
       <c r="F99" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G99" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7615,10 +7630,10 @@
         <v>1278</v>
       </c>
       <c r="F100" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G100" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7641,7 +7656,7 @@
         <v>1344</v>
       </c>
       <c r="G101" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7661,10 +7676,10 @@
         <v>1284</v>
       </c>
       <c r="F102" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G102" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7687,7 +7702,7 @@
         <v>967</v>
       </c>
       <c r="G103" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7707,10 +7722,10 @@
         <v>1276</v>
       </c>
       <c r="F104" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G104" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7733,7 +7748,7 @@
         <v>930</v>
       </c>
       <c r="G105" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7753,10 +7768,10 @@
         <v>1285</v>
       </c>
       <c r="F106" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G106" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7776,10 +7791,10 @@
         <v>1275</v>
       </c>
       <c r="F107" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G107" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7799,10 +7814,10 @@
         <v>1295</v>
       </c>
       <c r="F108" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G108" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7825,7 +7840,7 @@
         <v>1344</v>
       </c>
       <c r="G109" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7845,10 +7860,10 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G110" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7868,10 +7883,10 @@
         <v>1277</v>
       </c>
       <c r="F111" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G111" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7891,10 +7906,10 @@
         <v>1276</v>
       </c>
       <c r="F112" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G112" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7914,10 +7929,10 @@
         <v>1284</v>
       </c>
       <c r="F113" t="s">
-        <v>1415</v>
+        <v>1064</v>
       </c>
       <c r="G113" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7940,7 +7955,7 @@
         <v>946</v>
       </c>
       <c r="G114" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7963,7 +7978,7 @@
         <v>1416</v>
       </c>
       <c r="G115" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7986,7 +8001,7 @@
         <v>1417</v>
       </c>
       <c r="G116" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8009,7 +8024,7 @@
         <v>1418</v>
       </c>
       <c r="G117" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8032,7 +8047,7 @@
         <v>1419</v>
       </c>
       <c r="G118" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8055,7 +8070,7 @@
         <v>1420</v>
       </c>
       <c r="G119" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8078,7 +8093,7 @@
         <v>967</v>
       </c>
       <c r="G120" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8101,7 +8116,7 @@
         <v>946</v>
       </c>
       <c r="G121" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8124,7 +8139,7 @@
         <v>930</v>
       </c>
       <c r="G122" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8147,7 +8162,7 @@
         <v>932</v>
       </c>
       <c r="G123" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8170,7 +8185,7 @@
         <v>1421</v>
       </c>
       <c r="G124" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8193,7 +8208,7 @@
         <v>1422</v>
       </c>
       <c r="G125" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8216,7 +8231,7 @@
         <v>999</v>
       </c>
       <c r="G126" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8239,7 +8254,7 @@
         <v>1344</v>
       </c>
       <c r="G127" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8262,7 +8277,7 @@
         <v>1423</v>
       </c>
       <c r="G128" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8285,7 +8300,7 @@
         <v>1424</v>
       </c>
       <c r="G129" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8308,7 +8323,7 @@
         <v>1425</v>
       </c>
       <c r="G130" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8331,7 +8346,7 @@
         <v>1426</v>
       </c>
       <c r="G131" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8354,7 +8369,7 @@
         <v>1427</v>
       </c>
       <c r="G132" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8377,7 +8392,7 @@
         <v>1428</v>
       </c>
       <c r="G133" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8400,7 +8415,7 @@
         <v>1429</v>
       </c>
       <c r="G134" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8420,10 +8435,10 @@
         <v>1297</v>
       </c>
       <c r="F135" t="s">
-        <v>1064</v>
+        <v>1430</v>
       </c>
       <c r="G135" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8446,7 +8461,7 @@
         <v>1370</v>
       </c>
       <c r="G136" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8466,10 +8481,10 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G137" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8489,10 +8504,10 @@
         <v>1275</v>
       </c>
       <c r="F138" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G138" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8512,10 +8527,10 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G139" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8535,10 +8550,10 @@
         <v>1281</v>
       </c>
       <c r="F140" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G140" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8561,7 +8576,7 @@
         <v>1049</v>
       </c>
       <c r="G141" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8581,10 +8596,10 @@
         <v>1277</v>
       </c>
       <c r="F142" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G142" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8604,10 +8619,10 @@
         <v>1283</v>
       </c>
       <c r="F143" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G143" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8627,10 +8642,10 @@
         <v>1276</v>
       </c>
       <c r="F144" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G144" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8650,10 +8665,10 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>988</v>
+        <v>1437</v>
       </c>
       <c r="G145" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8673,10 +8688,10 @@
         <v>1301</v>
       </c>
       <c r="F146" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G146" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8699,7 +8714,7 @@
         <v>930</v>
       </c>
       <c r="G147" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8719,10 +8734,10 @@
         <v>1277</v>
       </c>
       <c r="F148" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="G148" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8742,10 +8757,10 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="G149" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8765,10 +8780,10 @@
         <v>1275</v>
       </c>
       <c r="F150" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="G150" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8788,10 +8803,10 @@
         <v>1302</v>
       </c>
       <c r="F151" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G151" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8811,10 +8826,10 @@
         <v>1276</v>
       </c>
       <c r="F152" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="G152" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8834,10 +8849,10 @@
         <v>1303</v>
       </c>
       <c r="F153" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="G153" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8857,10 +8872,10 @@
         <v>1277</v>
       </c>
       <c r="F154" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G154" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8880,10 +8895,10 @@
         <v>1277</v>
       </c>
       <c r="F155" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="G155" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8903,10 +8918,10 @@
         <v>1277</v>
       </c>
       <c r="F156" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="G156" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8929,7 +8944,7 @@
         <v>1344</v>
       </c>
       <c r="G157" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8949,10 +8964,10 @@
         <v>1284</v>
       </c>
       <c r="F158" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G158" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8972,10 +8987,10 @@
         <v>1284</v>
       </c>
       <c r="F159" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G159" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8995,10 +9010,10 @@
         <v>1284</v>
       </c>
       <c r="F160" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G160" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9017,8 +9032,11 @@
       <c r="E161" t="s">
         <v>1277</v>
       </c>
+      <c r="F161" t="s">
+        <v>1031</v>
+      </c>
       <c r="G161" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9038,10 +9056,10 @@
         <v>1277</v>
       </c>
       <c r="F162" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G162" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9064,7 +9082,7 @@
         <v>975</v>
       </c>
       <c r="G163" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9084,10 +9102,10 @@
         <v>1278</v>
       </c>
       <c r="F164" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G164" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9107,10 +9125,10 @@
         <v>1285</v>
       </c>
       <c r="F165" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G165" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9130,10 +9148,10 @@
         <v>1277</v>
       </c>
       <c r="F166" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G166" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9153,10 +9171,10 @@
         <v>1278</v>
       </c>
       <c r="F167" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="G167" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9176,10 +9194,10 @@
         <v>1304</v>
       </c>
       <c r="F168" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G168" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9199,10 +9217,10 @@
         <v>1299</v>
       </c>
       <c r="F169" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G169" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9222,10 +9240,10 @@
         <v>1305</v>
       </c>
       <c r="F170" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G170" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9245,10 +9263,10 @@
         <v>1275</v>
       </c>
       <c r="F171" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="G171" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9268,10 +9286,10 @@
         <v>1276</v>
       </c>
       <c r="F172" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="G172" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9291,10 +9309,10 @@
         <v>1295</v>
       </c>
       <c r="F173" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G173" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9314,10 +9332,10 @@
         <v>1276</v>
       </c>
       <c r="F174" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="G174" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -9337,10 +9355,10 @@
         <v>1306</v>
       </c>
       <c r="F175" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G175" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9360,10 +9378,10 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G176" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9383,10 +9401,10 @@
         <v>1283</v>
       </c>
       <c r="F177" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="G177" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9406,10 +9424,10 @@
         <v>1307</v>
       </c>
       <c r="F178" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="G178" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9429,10 +9447,10 @@
         <v>1308</v>
       </c>
       <c r="F179" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="G179" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9452,10 +9470,10 @@
         <v>1292</v>
       </c>
       <c r="F180" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="G180" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9475,10 +9493,10 @@
         <v>1276</v>
       </c>
       <c r="F181" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="G181" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9501,7 +9519,7 @@
         <v>988</v>
       </c>
       <c r="G182" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9524,7 +9542,7 @@
         <v>1353</v>
       </c>
       <c r="G183" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9544,10 +9562,10 @@
         <v>1277</v>
       </c>
       <c r="F184" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="G184" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9570,7 +9588,7 @@
         <v>1350</v>
       </c>
       <c r="G185" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9590,10 +9608,10 @@
         <v>1284</v>
       </c>
       <c r="F186" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="G186" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9613,10 +9631,10 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G187" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9639,7 +9657,7 @@
         <v>988</v>
       </c>
       <c r="G188" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9662,7 +9680,7 @@
         <v>946</v>
       </c>
       <c r="G189" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9685,7 +9703,7 @@
         <v>932</v>
       </c>
       <c r="G190" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9705,10 +9723,10 @@
         <v>1276</v>
       </c>
       <c r="F191" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="G191" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9731,7 +9749,7 @@
         <v>1349</v>
       </c>
       <c r="G192" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9751,10 +9769,10 @@
         <v>1283</v>
       </c>
       <c r="F193" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="G193" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9774,10 +9792,10 @@
         <v>1277</v>
       </c>
       <c r="F194" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G194" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9800,7 +9818,7 @@
         <v>967</v>
       </c>
       <c r="G195" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9823,7 +9841,7 @@
         <v>1359</v>
       </c>
       <c r="G196" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9846,7 +9864,7 @@
         <v>995</v>
       </c>
       <c r="G197" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9866,7 +9884,7 @@
         <v>1296</v>
       </c>
       <c r="G198" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9886,10 +9904,10 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="G199" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9909,10 +9927,10 @@
         <v>1277</v>
       </c>
       <c r="F200" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="G200" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -9932,10 +9950,10 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="G201" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -9955,10 +9973,10 @@
         <v>1308</v>
       </c>
       <c r="F202" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="G202" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9981,7 +9999,7 @@
         <v>1088</v>
       </c>
       <c r="G203" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10001,10 +10019,10 @@
         <v>1311</v>
       </c>
       <c r="F204" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="G204" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10024,10 +10042,10 @@
         <v>1278</v>
       </c>
       <c r="F205" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="G205" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10047,10 +10065,10 @@
         <v>1275</v>
       </c>
       <c r="F206" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="G206" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10073,7 +10091,7 @@
         <v>946</v>
       </c>
       <c r="G207" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10093,10 +10111,10 @@
         <v>1277</v>
       </c>
       <c r="F208" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="G208" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10116,10 +10134,10 @@
         <v>1276</v>
       </c>
       <c r="F209" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="G209" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10139,10 +10157,10 @@
         <v>1277</v>
       </c>
       <c r="F210" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="G210" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -10162,10 +10180,10 @@
         <v>1310</v>
       </c>
       <c r="F211" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="G211" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10185,10 +10203,10 @@
         <v>1277</v>
       </c>
       <c r="F212" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="G212" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -10211,7 +10229,7 @@
         <v>1359</v>
       </c>
       <c r="G213" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -10231,10 +10249,10 @@
         <v>1295</v>
       </c>
       <c r="F214" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="G214" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -10254,10 +10272,10 @@
         <v>1277</v>
       </c>
       <c r="F215" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="G215" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10280,7 +10298,7 @@
         <v>988</v>
       </c>
       <c r="G216" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10300,10 +10318,10 @@
         <v>1310</v>
       </c>
       <c r="F217" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="G217" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -10323,10 +10341,10 @@
         <v>1280</v>
       </c>
       <c r="F218" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="G218" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -10346,10 +10364,10 @@
         <v>1284</v>
       </c>
       <c r="F219" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="G219" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10369,10 +10387,10 @@
         <v>1309</v>
       </c>
       <c r="F220" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="G220" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10395,7 +10413,7 @@
         <v>946</v>
       </c>
       <c r="G221" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10415,10 +10433,10 @@
         <v>1275</v>
       </c>
       <c r="F222" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="G222" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10438,10 +10456,10 @@
         <v>1310</v>
       </c>
       <c r="F223" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="G223" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10461,10 +10479,10 @@
         <v>1313</v>
       </c>
       <c r="F224" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="G224" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10487,7 +10505,7 @@
         <v>1088</v>
       </c>
       <c r="G225" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10510,7 +10528,7 @@
         <v>930</v>
       </c>
       <c r="G226" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10533,7 +10551,7 @@
         <v>1088</v>
       </c>
       <c r="G227" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -10553,10 +10571,10 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="G228" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -10576,10 +10594,10 @@
         <v>1275</v>
       </c>
       <c r="F229" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="G229" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10599,10 +10617,10 @@
         <v>1293</v>
       </c>
       <c r="F230" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G230" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10625,7 +10643,7 @@
         <v>946</v>
       </c>
       <c r="G231" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10645,10 +10663,10 @@
         <v>1275</v>
       </c>
       <c r="F232" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="G232" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -10668,10 +10686,10 @@
         <v>1314</v>
       </c>
       <c r="F233" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G233" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10691,10 +10709,10 @@
         <v>1284</v>
       </c>
       <c r="F234" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="G234" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10714,10 +10732,10 @@
         <v>1299</v>
       </c>
       <c r="F235" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="G235" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10737,10 +10755,10 @@
         <v>1284</v>
       </c>
       <c r="F236" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="G236" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10760,10 +10778,10 @@
         <v>1284</v>
       </c>
       <c r="F237" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="G237" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10783,10 +10801,10 @@
         <v>1315</v>
       </c>
       <c r="F238" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G238" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10809,7 +10827,7 @@
         <v>967</v>
       </c>
       <c r="G239" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10829,10 +10847,10 @@
         <v>1316</v>
       </c>
       <c r="F240" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="G240" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10852,10 +10870,10 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="G241" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10875,10 +10893,10 @@
         <v>1317</v>
       </c>
       <c r="F242" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G242" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10901,7 +10919,7 @@
         <v>1350</v>
       </c>
       <c r="G243" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10921,10 +10939,10 @@
         <v>1275</v>
       </c>
       <c r="F244" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="G244" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10944,10 +10962,10 @@
         <v>1275</v>
       </c>
       <c r="F245" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="G245" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10970,7 +10988,7 @@
         <v>930</v>
       </c>
       <c r="G246" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10990,10 +11008,10 @@
         <v>1309</v>
       </c>
       <c r="F247" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="G247" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11016,7 +11034,7 @@
         <v>984</v>
       </c>
       <c r="G248" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11036,10 +11054,10 @@
         <v>1304</v>
       </c>
       <c r="F249" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="G249" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11059,10 +11077,10 @@
         <v>1278</v>
       </c>
       <c r="F250" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="G250" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -11082,10 +11100,10 @@
         <v>1299</v>
       </c>
       <c r="F251" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="G251" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11105,10 +11123,10 @@
         <v>1275</v>
       </c>
       <c r="F252" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="G252" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11128,10 +11146,10 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="G253" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11154,7 +11172,7 @@
         <v>946</v>
       </c>
       <c r="G254" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11174,10 +11192,10 @@
         <v>1275</v>
       </c>
       <c r="F255" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="G255" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11197,10 +11215,10 @@
         <v>1278</v>
       </c>
       <c r="F256" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G256" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11223,7 +11241,7 @@
         <v>1352</v>
       </c>
       <c r="G257" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11246,7 +11264,7 @@
         <v>1359</v>
       </c>
       <c r="G258" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11269,7 +11287,7 @@
         <v>1064</v>
       </c>
       <c r="G259" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11289,10 +11307,10 @@
         <v>1278</v>
       </c>
       <c r="F260" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G260" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11312,10 +11330,10 @@
         <v>1284</v>
       </c>
       <c r="F261" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="G261" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11338,7 +11356,7 @@
         <v>967</v>
       </c>
       <c r="G262" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11358,10 +11376,10 @@
         <v>1299</v>
       </c>
       <c r="F263" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="G263" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11381,10 +11399,10 @@
         <v>1275</v>
       </c>
       <c r="F264" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="G264" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11404,10 +11422,10 @@
         <v>1310</v>
       </c>
       <c r="F265" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="G265" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11427,10 +11445,10 @@
         <v>1293</v>
       </c>
       <c r="F266" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="G266" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11450,10 +11468,10 @@
         <v>1278</v>
       </c>
       <c r="F267" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="G267" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11473,10 +11491,10 @@
         <v>1285</v>
       </c>
       <c r="F268" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="G268" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11496,10 +11514,10 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="G269" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -11522,7 +11540,7 @@
         <v>984</v>
       </c>
       <c r="G270" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11542,10 +11560,10 @@
         <v>1303</v>
       </c>
       <c r="F271" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="G271" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11565,10 +11583,10 @@
         <v>1285</v>
       </c>
       <c r="F272" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G272" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11588,10 +11606,10 @@
         <v>1278</v>
       </c>
       <c r="F273" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="G273" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11611,10 +11629,10 @@
         <v>1284</v>
       </c>
       <c r="F274" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="G274" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11634,10 +11652,10 @@
         <v>1318</v>
       </c>
       <c r="F275" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="G275" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11657,10 +11675,10 @@
         <v>1275</v>
       </c>
       <c r="F276" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="G276" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11683,7 +11701,7 @@
         <v>1359</v>
       </c>
       <c r="G277" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11703,10 +11721,10 @@
         <v>1275</v>
       </c>
       <c r="F278" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="G278" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11726,10 +11744,10 @@
         <v>1275</v>
       </c>
       <c r="F279" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="G279" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11752,7 +11770,7 @@
         <v>1226</v>
       </c>
       <c r="G280" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11775,7 +11793,7 @@
         <v>984</v>
       </c>
       <c r="G281" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11795,10 +11813,10 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="G282" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11821,7 +11839,7 @@
         <v>1210</v>
       </c>
       <c r="G283" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11841,10 +11859,10 @@
         <v>1319</v>
       </c>
       <c r="F284" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="G284" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11864,10 +11882,10 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="G285" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11887,10 +11905,10 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="G286" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11910,10 +11928,10 @@
         <v>1278</v>
       </c>
       <c r="F287" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="G287" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -11933,10 +11951,10 @@
         <v>1275</v>
       </c>
       <c r="F288" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G288" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11956,10 +11974,10 @@
         <v>1284</v>
       </c>
       <c r="F289" t="s">
-        <v>1455</v>
+        <v>1530</v>
       </c>
       <c r="G289" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11979,10 +11997,10 @@
         <v>1320</v>
       </c>
       <c r="F290" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="G290" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -12002,10 +12020,10 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="G291" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -12025,10 +12043,10 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="G292" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -12048,10 +12066,10 @@
         <v>1297</v>
       </c>
       <c r="F293" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="G293" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -12071,10 +12089,10 @@
         <v>1284</v>
       </c>
       <c r="F294" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="G294" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -12097,7 +12115,7 @@
         <v>946</v>
       </c>
       <c r="G295" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12120,7 +12138,7 @@
         <v>1423</v>
       </c>
       <c r="G296" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12140,10 +12158,10 @@
         <v>1284</v>
       </c>
       <c r="F297" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="G297" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -12163,10 +12181,10 @@
         <v>1293</v>
       </c>
       <c r="F298" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="G298" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -12189,7 +12207,7 @@
         <v>946</v>
       </c>
       <c r="G299" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -12209,10 +12227,10 @@
         <v>1275</v>
       </c>
       <c r="F300" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="G300" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -12232,10 +12250,10 @@
         <v>1284</v>
       </c>
       <c r="F301" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="G301" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -12255,10 +12273,10 @@
         <v>1278</v>
       </c>
       <c r="F302" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="G302" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12281,7 +12299,7 @@
         <v>984</v>
       </c>
       <c r="G303" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -12304,7 +12322,7 @@
         <v>999</v>
       </c>
       <c r="G304" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -12327,7 +12345,7 @@
         <v>932</v>
       </c>
       <c r="G305" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12347,10 +12365,10 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="G306" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12373,7 +12391,7 @@
         <v>946</v>
       </c>
       <c r="G307" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12393,10 +12411,10 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G308" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12419,7 +12437,7 @@
         <v>1088</v>
       </c>
       <c r="G309" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12442,7 +12460,7 @@
         <v>1088</v>
       </c>
       <c r="G310" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12465,7 +12483,7 @@
         <v>967</v>
       </c>
       <c r="G311" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12485,10 +12503,10 @@
         <v>1284</v>
       </c>
       <c r="F312" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="G312" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12511,7 +12529,7 @@
         <v>946</v>
       </c>
       <c r="G313" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12534,7 +12552,7 @@
         <v>946</v>
       </c>
       <c r="G314" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12554,10 +12572,10 @@
         <v>1293</v>
       </c>
       <c r="F315" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="G315" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12577,10 +12595,10 @@
         <v>1275</v>
       </c>
       <c r="F316" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="G316" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12603,7 +12621,7 @@
         <v>1423</v>
       </c>
       <c r="G317" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12626,7 +12644,7 @@
         <v>1352</v>
       </c>
       <c r="G318" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12645,8 +12663,11 @@
       <c r="E319" t="s">
         <v>1284</v>
       </c>
+      <c r="F319" t="s">
+        <v>1170</v>
+      </c>
       <c r="G319" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12666,10 +12687,10 @@
         <v>1284</v>
       </c>
       <c r="F320" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="G320" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12689,10 +12710,10 @@
         <v>1314</v>
       </c>
       <c r="F321" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="G321" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12712,10 +12733,10 @@
         <v>1284</v>
       </c>
       <c r="F322" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="G322" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12735,10 +12756,10 @@
         <v>1309</v>
       </c>
       <c r="F323" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="G323" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12758,10 +12779,10 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G324" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12784,7 +12805,7 @@
         <v>946</v>
       </c>
       <c r="G325" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12807,7 +12828,7 @@
         <v>1088</v>
       </c>
       <c r="G326" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12827,10 +12848,10 @@
         <v>1275</v>
       </c>
       <c r="F327" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="G327" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12850,10 +12871,10 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="G328" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -12873,10 +12894,10 @@
         <v>1322</v>
       </c>
       <c r="F329" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="G329" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12899,7 +12920,7 @@
         <v>1353</v>
       </c>
       <c r="G330" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -12919,10 +12940,10 @@
         <v>1296</v>
       </c>
       <c r="F331" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G331" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -12942,10 +12963,10 @@
         <v>1284</v>
       </c>
       <c r="F332" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G332" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12965,10 +12986,10 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="G333" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -12991,7 +13012,7 @@
         <v>1179</v>
       </c>
       <c r="G334" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13011,10 +13032,10 @@
         <v>1321</v>
       </c>
       <c r="F335" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="G335" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13034,10 +13055,10 @@
         <v>1310</v>
       </c>
       <c r="F336" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="G336" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13057,10 +13078,10 @@
         <v>1310</v>
       </c>
       <c r="F337" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="G337" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -13080,10 +13101,10 @@
         <v>1296</v>
       </c>
       <c r="F338" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="G338" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -13103,10 +13124,10 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="G339" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13126,10 +13147,10 @@
         <v>1275</v>
       </c>
       <c r="F340" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="G340" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13149,10 +13170,10 @@
         <v>1316</v>
       </c>
       <c r="F341" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="G341" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -13175,7 +13196,7 @@
         <v>1350</v>
       </c>
       <c r="G342" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -13195,10 +13216,10 @@
         <v>1299</v>
       </c>
       <c r="F343" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="G343" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -13218,10 +13239,10 @@
         <v>1323</v>
       </c>
       <c r="F344" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="G344" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -13241,10 +13262,10 @@
         <v>1278</v>
       </c>
       <c r="F345" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="G345" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -13264,10 +13285,10 @@
         <v>1299</v>
       </c>
       <c r="F346" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="G346" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -13290,7 +13311,7 @@
         <v>946</v>
       </c>
       <c r="G347" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -13313,7 +13334,7 @@
         <v>984</v>
       </c>
       <c r="G348" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -13336,7 +13357,7 @@
         <v>1088</v>
       </c>
       <c r="G349" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -13359,7 +13380,7 @@
         <v>1350</v>
       </c>
       <c r="G350" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -13379,10 +13400,10 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="G351" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -13402,10 +13423,10 @@
         <v>1321</v>
       </c>
       <c r="F352" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="G352" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13428,7 +13449,7 @@
         <v>967</v>
       </c>
       <c r="G353" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -13451,7 +13472,7 @@
         <v>984</v>
       </c>
       <c r="G354" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13471,10 +13492,10 @@
         <v>1284</v>
       </c>
       <c r="F355" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="G355" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13497,7 +13518,7 @@
         <v>946</v>
       </c>
       <c r="G356" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13517,10 +13538,10 @@
         <v>1324</v>
       </c>
       <c r="F357" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="G357" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13543,7 +13564,7 @@
         <v>1350</v>
       </c>
       <c r="G358" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13566,7 +13587,7 @@
         <v>1422</v>
       </c>
       <c r="G359" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13589,7 +13610,7 @@
         <v>984</v>
       </c>
       <c r="G360" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13609,10 +13630,10 @@
         <v>1278</v>
       </c>
       <c r="F361" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G361" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13632,10 +13653,10 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G362" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13655,10 +13676,10 @@
         <v>1285</v>
       </c>
       <c r="F363" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="G363" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13678,10 +13699,10 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="G364" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13701,10 +13722,10 @@
         <v>1278</v>
       </c>
       <c r="F365" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="G365" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13724,10 +13745,10 @@
         <v>1293</v>
       </c>
       <c r="F366" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="G366" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13747,10 +13768,10 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G367" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13770,10 +13791,10 @@
         <v>1297</v>
       </c>
       <c r="F368" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="G368" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13796,7 +13817,7 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13816,10 +13837,10 @@
         <v>1284</v>
       </c>
       <c r="F370" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="G370" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13839,10 +13860,10 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="G371" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13862,10 +13883,10 @@
         <v>1284</v>
       </c>
       <c r="F372" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="G372" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13885,10 +13906,10 @@
         <v>1284</v>
       </c>
       <c r="F373" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="G373" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13908,7 +13929,7 @@
         <v>1284</v>
       </c>
       <c r="G374" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13931,7 +13952,7 @@
         <v>1210</v>
       </c>
       <c r="G375" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13951,10 +13972,10 @@
         <v>1278</v>
       </c>
       <c r="F376" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="G376" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13974,10 +13995,10 @@
         <v>1278</v>
       </c>
       <c r="F377" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="G377" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13997,10 +14018,10 @@
         <v>1284</v>
       </c>
       <c r="F378" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="G378" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -14020,10 +14041,10 @@
         <v>1325</v>
       </c>
       <c r="F379" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="G379" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14043,10 +14064,10 @@
         <v>1284</v>
       </c>
       <c r="F380" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="G380" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14066,10 +14087,10 @@
         <v>1321</v>
       </c>
       <c r="F381" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G381" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14089,10 +14110,10 @@
         <v>1326</v>
       </c>
       <c r="F382" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="G382" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -14112,10 +14133,10 @@
         <v>1327</v>
       </c>
       <c r="F383" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="G383" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14135,10 +14156,10 @@
         <v>1328</v>
       </c>
       <c r="F384" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="G384" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -14158,10 +14179,10 @@
         <v>1278</v>
       </c>
       <c r="F385" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G385" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -14181,10 +14202,10 @@
         <v>1324</v>
       </c>
       <c r="F386" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="G386" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -14207,7 +14228,7 @@
         <v>995</v>
       </c>
       <c r="G387" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -14227,10 +14248,10 @@
         <v>1282</v>
       </c>
       <c r="F388" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="G388" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -14250,10 +14271,10 @@
         <v>1284</v>
       </c>
       <c r="F389" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G389" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -14273,10 +14294,10 @@
         <v>1294</v>
       </c>
       <c r="F390" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G390" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -14296,10 +14317,10 @@
         <v>1284</v>
       </c>
       <c r="F391" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="G391" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -14322,7 +14343,7 @@
         <v>1359</v>
       </c>
       <c r="G392" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -14342,10 +14363,10 @@
         <v>1278</v>
       </c>
       <c r="F393" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G393" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -14365,10 +14386,10 @@
         <v>1284</v>
       </c>
       <c r="F394" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="G394" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -14388,10 +14409,10 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="G395" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -14411,10 +14432,10 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="G396" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -14434,10 +14455,10 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="G397" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -14460,7 +14481,7 @@
         <v>1088</v>
       </c>
       <c r="G398" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -14480,10 +14501,10 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="G399" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -14503,10 +14524,10 @@
         <v>1303</v>
       </c>
       <c r="F400" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G400" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14529,7 +14550,7 @@
         <v>1226</v>
       </c>
       <c r="G401" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14552,7 +14573,7 @@
         <v>1226</v>
       </c>
       <c r="G402" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14572,10 +14593,10 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="G403" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14595,10 +14616,10 @@
         <v>1278</v>
       </c>
       <c r="F404" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="G404" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14618,10 +14639,10 @@
         <v>1324</v>
       </c>
       <c r="F405" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="G405" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14644,7 +14665,7 @@
         <v>1088</v>
       </c>
       <c r="G406" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14664,10 +14685,10 @@
         <v>1293</v>
       </c>
       <c r="F407" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="G407" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14687,10 +14708,10 @@
         <v>1284</v>
       </c>
       <c r="F408" t="s">
-        <v>1455</v>
+        <v>1530</v>
       </c>
       <c r="G408" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14713,7 +14734,7 @@
         <v>967</v>
       </c>
       <c r="G409" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14736,7 +14757,7 @@
         <v>1233</v>
       </c>
       <c r="G410" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14756,10 +14777,10 @@
         <v>1323</v>
       </c>
       <c r="F411" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="G411" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14782,7 +14803,7 @@
         <v>1359</v>
       </c>
       <c r="G412" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14802,10 +14823,10 @@
         <v>1311</v>
       </c>
       <c r="F413" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G413" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14825,10 +14846,10 @@
         <v>1284</v>
       </c>
       <c r="F414" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="G414" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14848,10 +14869,10 @@
         <v>1329</v>
       </c>
       <c r="F415" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="G415" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14871,10 +14892,10 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G416" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14894,10 +14915,10 @@
         <v>1284</v>
       </c>
       <c r="F417" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G417" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14917,10 +14938,10 @@
         <v>1330</v>
       </c>
       <c r="F418" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="G418" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14940,10 +14961,10 @@
         <v>1294</v>
       </c>
       <c r="F419" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G419" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14963,10 +14984,10 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="G420" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14986,10 +15007,10 @@
         <v>1293</v>
       </c>
       <c r="F421" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="G421" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15009,10 +15030,10 @@
         <v>1285</v>
       </c>
       <c r="F422" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="G422" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15035,7 +15056,7 @@
         <v>1064</v>
       </c>
       <c r="G423" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15058,7 +15079,7 @@
         <v>1244</v>
       </c>
       <c r="G424" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15078,10 +15099,10 @@
         <v>1297</v>
       </c>
       <c r="F425" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="G425" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15101,10 +15122,10 @@
         <v>1329</v>
       </c>
       <c r="F426" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="G426" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15127,7 +15148,7 @@
         <v>1210</v>
       </c>
       <c r="G427" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15147,10 +15168,10 @@
         <v>1278</v>
       </c>
       <c r="F428" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G428" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -15170,7 +15191,7 @@
         <v>1284</v>
       </c>
       <c r="G429" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15190,10 +15211,10 @@
         <v>1293</v>
       </c>
       <c r="F430" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="G430" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15213,10 +15234,10 @@
         <v>1296</v>
       </c>
       <c r="F431" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="G431" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15239,7 +15260,7 @@
         <v>1088</v>
       </c>
       <c r="G432" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15259,10 +15280,10 @@
         <v>1293</v>
       </c>
       <c r="F433" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="G433" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15282,10 +15303,10 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="G434" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15305,10 +15326,10 @@
         <v>1284</v>
       </c>
       <c r="F435" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="G435" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15331,7 +15352,7 @@
         <v>946</v>
       </c>
       <c r="G436" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15351,7 +15372,7 @@
         <v>1293</v>
       </c>
       <c r="G437" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15374,7 +15395,7 @@
         <v>1088</v>
       </c>
       <c r="G438" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15394,10 +15415,10 @@
         <v>1278</v>
       </c>
       <c r="F439" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="G439" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15417,10 +15438,10 @@
         <v>1278</v>
       </c>
       <c r="F440" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="G440" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15440,10 +15461,10 @@
         <v>1278</v>
       </c>
       <c r="F441" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="G441" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15463,10 +15484,10 @@
         <v>1278</v>
       </c>
       <c r="F442" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="G442" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15486,10 +15507,10 @@
         <v>1293</v>
       </c>
       <c r="F443" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="G443" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15509,10 +15530,10 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G444" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15532,10 +15553,10 @@
         <v>1331</v>
       </c>
       <c r="F445" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="G445" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15555,10 +15576,10 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G446" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15578,10 +15599,10 @@
         <v>1321</v>
       </c>
       <c r="F447" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="G447" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15601,10 +15622,10 @@
         <v>1284</v>
       </c>
       <c r="F448" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="G448" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -15624,10 +15645,10 @@
         <v>1293</v>
       </c>
       <c r="F449" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="G449" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -15650,7 +15671,7 @@
         <v>967</v>
       </c>
       <c r="G450" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15673,7 +15694,7 @@
         <v>967</v>
       </c>
       <c r="G451" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15696,7 +15717,7 @@
         <v>999</v>
       </c>
       <c r="G452" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15716,10 +15737,10 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="G453" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -15739,10 +15760,10 @@
         <v>1332</v>
       </c>
       <c r="F454" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="G454" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15762,10 +15783,10 @@
         <v>1333</v>
       </c>
       <c r="F455" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="G455" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15785,10 +15806,10 @@
         <v>1278</v>
       </c>
       <c r="F456" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="G456" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15808,10 +15829,10 @@
         <v>1278</v>
       </c>
       <c r="F457" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="G457" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15834,7 +15855,7 @@
         <v>1210</v>
       </c>
       <c r="G458" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15854,10 +15875,10 @@
         <v>1293</v>
       </c>
       <c r="F459" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="G459" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15880,7 +15901,7 @@
         <v>946</v>
       </c>
       <c r="G460" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15900,10 +15921,10 @@
         <v>1321</v>
       </c>
       <c r="F461" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="G461" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15926,7 +15947,7 @@
         <v>967</v>
       </c>
       <c r="G462" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -15946,10 +15967,10 @@
         <v>1335</v>
       </c>
       <c r="F463" t="s">
-        <v>1405</v>
+        <v>1618</v>
       </c>
       <c r="G463" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
